--- a/docs/start-from-covid-data.xlsx
+++ b/docs/start-from-covid-data.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="1560" windowWidth="16700" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,26 +63,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <sz val="16"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,22 +100,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +394,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="F17" sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,30 +407,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>2000</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>16570.28</v>
       </c>
       <c r="C2" s="4">
@@ -451,15 +442,15 @@
       <c r="E2" s="4">
         <v>23335.33</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>2139702</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2001</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>19938.75</v>
       </c>
       <c r="C3" s="4">
@@ -471,15 +462,15 @@
       <c r="E3" s="4">
         <v>29293.31</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>2414392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2002</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>23702.31</v>
       </c>
       <c r="C4" s="4">
@@ -491,15 +482,15 @@
       <c r="E4" s="4">
         <v>34224.1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>2629616</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2003</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>29778.85</v>
       </c>
       <c r="C5" s="4">
@@ -511,15 +502,15 @@
       <c r="E5" s="4">
         <v>43676.44</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>3021134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>2004</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>33819.89</v>
       </c>
       <c r="C6" s="4">
@@ -531,15 +522,15 @@
       <c r="E6" s="4">
         <v>47949.01</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>4042219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2005</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>49587.83</v>
       </c>
       <c r="C7" s="4">
@@ -551,15 +542,15 @@
       <c r="E7" s="4">
         <v>54033.97</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>3682523</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>2006</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>55422.95</v>
       </c>
       <c r="C8" s="4">
@@ -571,15 +562,15 @@
       <c r="E8" s="4">
         <v>63567.5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>4005305</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>2007</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>70135.88</v>
       </c>
       <c r="C9" s="4">
@@ -591,15 +582,15 @@
       <c r="E9" s="4">
         <v>78135.98</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>4401203</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>2008</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>59280.35</v>
       </c>
       <c r="C10" s="4">
@@ -611,15 +602,15 @@
       <c r="E10" s="4">
         <v>79889.100000000006</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>4939189</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>2009</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="1">
         <v>86184.89</v>
       </c>
       <c r="C11" s="4">
@@ -631,15 +622,15 @@
       <c r="E11" s="4">
         <v>92463.47</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>5548897</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>2010</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>93376.6</v>
       </c>
       <c r="C12" s="4">
@@ -651,15 +642,15 @@
       <c r="E12" s="4">
         <v>129467.93</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>6019767</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>2011</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1">
         <v>96528.41</v>
       </c>
       <c r="C13" s="4">
@@ -671,15 +662,15 @@
       <c r="E13" s="4">
         <v>146034.57</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>7219163</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>2012</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="1">
         <v>98467.51</v>
       </c>
       <c r="C14" s="4">
@@ -691,15 +682,15 @@
       <c r="E14" s="4">
         <v>130695.42</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>7642379</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>2013</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="1">
         <v>115722.69</v>
       </c>
       <c r="C15" s="4">
@@ -711,15 +702,15 @@
       <c r="E15" s="4">
         <v>145844.79999999999</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>7493133</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>2014</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="1">
         <v>105187.79</v>
       </c>
       <c r="C16" s="4">
@@ -731,15 +722,15 @@
       <c r="E16" s="4">
         <v>124877</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>7659418</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>2015</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="1">
         <v>112412.29</v>
       </c>
       <c r="C17" s="4">
@@ -751,15 +742,15 @@
       <c r="E17" s="4">
         <v>106651.3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>7050109</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>2016</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <v>137539.93</v>
       </c>
       <c r="C18" s="4">
@@ -771,15 +762,15 @@
       <c r="E18" s="4">
         <v>115911</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>7455409</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>2017</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="1">
         <v>144788.76999999999</v>
       </c>
       <c r="C19" s="4">
@@ -791,12 +782,12 @@
       <c r="E19" s="4">
         <v>128097.78</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>6770598</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>2018</v>
       </c>
       <c r="B20" s="4">
@@ -811,12 +802,12 @@
       <c r="E20" s="4">
         <v>153352.57</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>6182425</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>2019</v>
       </c>
       <c r="B21" s="4">
@@ -831,28 +822,29 @@
       <c r="E21" s="4">
         <v>167463.43</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="1">
         <f>SUM(B2:B21)</f>
         <v>1646519.71</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="1">
         <f>SUM(C2:C21)</f>
         <v>6213312.4100000001</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
         <v>1099810.95</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
         <v>1894964.01</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="1">
         <f>SUM(F2:F20)</f>
         <v>100316581</v>
       </c>

--- a/docs/start-from-covid-data.xlsx
+++ b/docs/start-from-covid-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>年份</t>
   </si>
@@ -49,12 +49,18 @@
   <si>
     <t>房地产开发企业住宅竣工套数(套)</t>
   </si>
+  <si>
+    <t>销售套数</t>
+  </si>
+  <si>
+    <t>2005年起的总数</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +85,10 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -113,6 +123,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,23 +403,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="A1:F22"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" customWidth="1"/>
     <col min="3" max="3" width="50.33203125" customWidth="1"/>
     <col min="4" max="4" width="45.33203125" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="48.83203125" customWidth="1"/>
+    <col min="7" max="7" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +440,11 @@
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -446,7 +464,7 @@
         <v>2139702</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -466,7 +484,7 @@
         <v>2414392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -486,7 +504,7 @@
         <v>2629616</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -506,7 +524,7 @@
         <v>3021134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -526,7 +544,7 @@
         <v>4042219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -545,8 +563,24 @@
       <c r="F7" s="4">
         <v>3682523</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G7" s="4">
+        <v>13298420</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -565,8 +599,11 @@
       <c r="F8" s="4">
         <v>4005305</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G8" s="4">
+        <v>13361411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -585,8 +622,11 @@
       <c r="F9" s="4">
         <v>4401203</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G9" s="4">
+        <v>12822565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -605,8 +645,11 @@
       <c r="F10" s="4">
         <v>4939189</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G10" s="4">
+        <v>10578898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -625,8 +668,11 @@
       <c r="F11" s="4">
         <v>5548897</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G11" s="4">
+        <v>10104351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -645,8 +691,11 @@
       <c r="F12" s="4">
         <v>6019767</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G12" s="4">
+        <v>11046279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -665,8 +714,11 @@
       <c r="F13" s="4">
         <v>7219163</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G13" s="4">
+        <v>9446424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -685,8 +737,11 @@
       <c r="F14" s="4">
         <v>7642379</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G14" s="4">
+        <v>9139672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
@@ -705,8 +760,11 @@
       <c r="F15" s="4">
         <v>7493133</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G15" s="4">
+        <v>8817526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -725,8 +783,11 @@
       <c r="F16" s="4">
         <v>7659418</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G16" s="4">
+        <v>8040470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -745,8 +806,11 @@
       <c r="F17" s="4">
         <v>7050109</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G17" s="4">
+        <v>5565827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -765,8 +829,11 @@
       <c r="F18" s="4">
         <v>7455409</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G18" s="4">
+        <v>6251263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
@@ -785,8 +852,11 @@
       <c r="F19" s="4">
         <v>6770598</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="G19" s="4">
+        <v>5049094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
@@ -805,8 +875,11 @@
       <c r="F20" s="4">
         <v>6182425</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
+        <v>4235372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
@@ -824,7 +897,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -847,6 +920,19 @@
       <c r="F22" s="1">
         <f>SUM(F2:F20)</f>
         <v>100316581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
+        <f>SUM(F7,F20)</f>
+        <v>9864948</v>
+      </c>
+      <c r="G23" s="1">
+        <f>SUM(G7,G20)</f>
+        <v>17533792</v>
       </c>
     </row>
   </sheetData>
